--- a/src/test/resources/Result.xlsx
+++ b/src/test/resources/Result.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Sepete ekleme ve çıkarma kontrolleri senaryosu. PASSED olarak sonuçlandı.</t>
+    <t>Sepete ekleme ve çıkarma kontrolleri senaryosu Excel ile giriş. FAILED olarak sonuçlandı.</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Result.xlsx
+++ b/src/test/resources/Result.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Sepete ekleme ve çıkarma kontrolleri senaryosu Excel ile giriş. FAILED olarak sonuçlandı.</t>
+    <t>Take A Tour FAILED olarak sonuçlandı.</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Result.xlsx
+++ b/src/test/resources/Result.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Take A Tour FAILED olarak sonuçlandı.</t>
+    <t>Take A Tour PASSED olarak sonuçlandı.</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Result.xlsx
+++ b/src/test/resources/Result.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Take A Tour PASSED olarak sonuçlandı.</t>
+    <t>Course select PASSED result.</t>
   </si>
 </sst>
 </file>
